--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.4214245045033</v>
+        <v>597.8836797486834</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.3337877044647</v>
+        <v>818.0508273985213</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.5987735797153</v>
+        <v>739.977204573153</v>
       </c>
       <c r="AD2" t="n">
-        <v>480421.4245045033</v>
+        <v>597883.6797486835</v>
       </c>
       <c r="AE2" t="n">
-        <v>657333.7877044647</v>
+        <v>818050.8273985212</v>
       </c>
       <c r="AF2" t="n">
         <v>6.64314841776387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.62630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>594598.7735797153</v>
+        <v>739977.2045731531</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.2678954441595</v>
+        <v>326.7543899476743</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.3735285221006</v>
+        <v>447.0797717127066</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.6480549228127</v>
+        <v>404.4111057808456</v>
       </c>
       <c r="AD3" t="n">
-        <v>258267.8954441595</v>
+        <v>326754.3899476743</v>
       </c>
       <c r="AE3" t="n">
-        <v>353373.5285221006</v>
+        <v>447079.7717127067</v>
       </c>
       <c r="AF3" t="n">
         <v>1.035117083805804e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>319648.0549228127</v>
+        <v>404411.1057808456</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.8252771860908</v>
+        <v>325.3117716896089</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.3996745774193</v>
+        <v>445.1059177681958</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.8625828283961</v>
+        <v>402.6256336864774</v>
       </c>
       <c r="AD4" t="n">
-        <v>256825.2771860908</v>
+        <v>325311.7716896089</v>
       </c>
       <c r="AE4" t="n">
-        <v>351399.6745774192</v>
+        <v>445105.9177681957</v>
       </c>
       <c r="AF4" t="n">
         <v>1.043554817679434e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>317862.5828283961</v>
+        <v>402625.6336864774</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.3909772278589</v>
+        <v>448.19646872894</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.7886373189771</v>
+        <v>613.2421815476264</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.9028445643438</v>
+        <v>554.7152084315276</v>
       </c>
       <c r="AD2" t="n">
-        <v>351390.9772278588</v>
+        <v>448196.46872894</v>
       </c>
       <c r="AE2" t="n">
-        <v>480788.637318977</v>
+        <v>613242.1815476264</v>
       </c>
       <c r="AF2" t="n">
         <v>8.769493604134668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>434902.8445643437</v>
+        <v>554715.2084315276</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.4040617614504</v>
+        <v>326.7469697358333</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.2456402325136</v>
+        <v>447.069619051509</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.6776352700883</v>
+        <v>404.4019220753835</v>
       </c>
       <c r="AD3" t="n">
-        <v>249404.0617614504</v>
+        <v>326746.9697358332</v>
       </c>
       <c r="AE3" t="n">
-        <v>341245.6402325136</v>
+        <v>447069.619051509</v>
       </c>
       <c r="AF3" t="n">
         <v>1.119287569892141e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.34505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>308677.6352700883</v>
+        <v>404401.9220753835</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.5727992466787</v>
+        <v>356.704815096513</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.9461289925233</v>
+        <v>488.0592647208512</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.3526738746556</v>
+        <v>441.4795734913727</v>
       </c>
       <c r="AD2" t="n">
-        <v>272572.7992466787</v>
+        <v>356704.815096513</v>
       </c>
       <c r="AE2" t="n">
-        <v>372946.1289925233</v>
+        <v>488059.2647208511</v>
       </c>
       <c r="AF2" t="n">
         <v>1.322447047196406e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>337352.6738746556</v>
+        <v>441479.5734913726</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.1239764156838</v>
+        <v>337.4329421532161</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.9671474565995</v>
+        <v>461.6906379448032</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.0439670678769</v>
+        <v>417.6275314462306</v>
       </c>
       <c r="AD2" t="n">
-        <v>252123.9764156837</v>
+        <v>337432.942153216</v>
       </c>
       <c r="AE2" t="n">
-        <v>344967.1474565995</v>
+        <v>461690.6379448032</v>
       </c>
       <c r="AF2" t="n">
         <v>1.254475434047952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.54947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>312043.9670678769</v>
+        <v>417627.5314462306</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.4441530222652</v>
+        <v>388.8892651263325</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.6079683580831</v>
+        <v>532.0954491293757</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.8973131323459</v>
+        <v>481.3130062651204</v>
       </c>
       <c r="AD2" t="n">
-        <v>296444.1530222652</v>
+        <v>388889.2651263325</v>
       </c>
       <c r="AE2" t="n">
-        <v>405607.9683580831</v>
+        <v>532095.4491293756</v>
       </c>
       <c r="AF2" t="n">
         <v>1.361392664734053e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>366897.3131323459</v>
+        <v>481313.0062651203</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.4164738614512</v>
+        <v>488.1805241297648</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.8708464444817</v>
+        <v>667.9501301190642</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.0642253101528</v>
+        <v>604.2019071743954</v>
       </c>
       <c r="AD2" t="n">
-        <v>381416.4738614511</v>
+        <v>488180.5241297648</v>
       </c>
       <c r="AE2" t="n">
-        <v>521870.8464444817</v>
+        <v>667950.1301190641</v>
       </c>
       <c r="AF2" t="n">
         <v>8.15505338258386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>472064.2253101529</v>
+        <v>604201.9071743954</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.6040591523498</v>
+        <v>329.1740035164818</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.2557737197755</v>
+        <v>450.390393743366</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.4004858420758</v>
+        <v>407.4057666913861</v>
       </c>
       <c r="AD3" t="n">
-        <v>251604.0591523498</v>
+        <v>329174.0035164818</v>
       </c>
       <c r="AE3" t="n">
-        <v>344255.7737197755</v>
+        <v>450390.3937433659</v>
       </c>
       <c r="AF3" t="n">
         <v>1.095620520573583e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.29296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>311400.4858420758</v>
+        <v>407405.7666913861</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.5349031808971</v>
+        <v>422.5522853676062</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.9382396508973</v>
+        <v>578.1546785311257</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.9511515158123</v>
+        <v>522.9764074573019</v>
       </c>
       <c r="AD2" t="n">
-        <v>321534.9031808971</v>
+        <v>422552.2853676062</v>
       </c>
       <c r="AE2" t="n">
-        <v>439938.2396508973</v>
+        <v>578154.6785311257</v>
       </c>
       <c r="AF2" t="n">
         <v>1.365168227890706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>397951.1515158123</v>
+        <v>522976.4074573019</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.3717351872065</v>
+        <v>358.0461310670273</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.9852213280106</v>
+        <v>489.8945124063931</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.2427721346162</v>
+        <v>443.1396677135928</v>
       </c>
       <c r="AD2" t="n">
-        <v>281371.7351872065</v>
+        <v>358046.1310670273</v>
       </c>
       <c r="AE2" t="n">
-        <v>384985.2213280106</v>
+        <v>489894.5124063931</v>
       </c>
       <c r="AF2" t="n">
         <v>1.09666070466155e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.02473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>348242.7721346162</v>
+        <v>443139.6677135928</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.3423359831306</v>
+        <v>322.049886251878</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.6882078319245</v>
+        <v>440.6428622080631</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.6505964179042</v>
+        <v>398.5885258850661</v>
       </c>
       <c r="AD3" t="n">
-        <v>245342.3359831306</v>
+        <v>322049.8862518781</v>
       </c>
       <c r="AE3" t="n">
-        <v>335688.2078319245</v>
+        <v>440642.8622080631</v>
       </c>
       <c r="AF3" t="n">
         <v>1.184315543638526e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.76822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303650.5964179042</v>
+        <v>398588.5258850661</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.9154058002733</v>
+        <v>420.392144715792</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.1953483550915</v>
+        <v>575.1990787926337</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.8974063366589</v>
+        <v>520.3028860096414</v>
       </c>
       <c r="AD2" t="n">
-        <v>323915.4058002734</v>
+        <v>420392.144715792</v>
       </c>
       <c r="AE2" t="n">
-        <v>443195.3483550915</v>
+        <v>575199.0787926337</v>
       </c>
       <c r="AF2" t="n">
         <v>9.416102110491602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.71744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>400897.4063366589</v>
+        <v>520302.8860096413</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.5687594792509</v>
+        <v>325.7774829466936</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.1027427990729</v>
+        <v>445.7431244558695</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.6438143636282</v>
+        <v>403.202026262205</v>
       </c>
       <c r="AD3" t="n">
-        <v>248568.7594792509</v>
+        <v>325777.4829466935</v>
       </c>
       <c r="AE3" t="n">
-        <v>340102.7427990729</v>
+        <v>445743.1244558695</v>
       </c>
       <c r="AF3" t="n">
         <v>1.136733267808449e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>307643.8143636282</v>
+        <v>403202.026262205</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.4565794700827</v>
+        <v>561.5764337725561</v>
       </c>
       <c r="AB2" t="n">
-        <v>608.1251000713883</v>
+        <v>768.3736516913383</v>
       </c>
       <c r="AC2" t="n">
-        <v>550.0864940295127</v>
+        <v>695.0411487931094</v>
       </c>
       <c r="AD2" t="n">
-        <v>444456.5794700827</v>
+        <v>561576.4337725561</v>
       </c>
       <c r="AE2" t="n">
-        <v>608125.1000713883</v>
+        <v>768373.6516913383</v>
       </c>
       <c r="AF2" t="n">
         <v>7.120193526753645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.50651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>550086.4940295126</v>
+        <v>695041.1487931095</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.9297254113083</v>
+        <v>323.2364158597862</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.8060970133208</v>
+        <v>442.2663243635951</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.5165326669054</v>
+        <v>400.0570470910175</v>
       </c>
       <c r="AD3" t="n">
-        <v>254929.7254113083</v>
+        <v>323236.4158597862</v>
       </c>
       <c r="AE3" t="n">
-        <v>348806.0970133208</v>
+        <v>442266.324363595</v>
       </c>
       <c r="AF3" t="n">
         <v>1.059070334081356e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>315516.5326669054</v>
+        <v>400057.0470910175</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.5355116432509</v>
+        <v>322.8422020917288</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.2667163443809</v>
+        <v>441.7269436946548</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.0286297319835</v>
+        <v>399.5691441560954</v>
       </c>
       <c r="AD4" t="n">
-        <v>254535.5116432509</v>
+        <v>322842.2020917288</v>
       </c>
       <c r="AE4" t="n">
-        <v>348266.7163443809</v>
+        <v>441726.9436946549</v>
       </c>
       <c r="AF4" t="n">
         <v>1.063180504558258e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.07161458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>315028.6297319835</v>
+        <v>399569.1441560955</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.281328461797</v>
+        <v>329.3719445677443</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.5506875848596</v>
+        <v>450.6612254222461</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.4763763488089</v>
+        <v>407.6507505749485</v>
       </c>
       <c r="AD2" t="n">
-        <v>253281.328461797</v>
+        <v>329371.9445677443</v>
       </c>
       <c r="AE2" t="n">
-        <v>346550.6875848597</v>
+        <v>450661.2254222461</v>
       </c>
       <c r="AF2" t="n">
         <v>1.226430785122655e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>313476.3763488089</v>
+        <v>407650.7505749485</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.9575901245885</v>
+        <v>330.0482062305358</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.4759786264494</v>
+        <v>451.5865164638363</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.3133589120437</v>
+        <v>408.4877331381836</v>
       </c>
       <c r="AD3" t="n">
-        <v>253957.5901245885</v>
+        <v>330048.2062305358</v>
       </c>
       <c r="AE3" t="n">
-        <v>347475.9786264494</v>
+        <v>451586.5164638363</v>
       </c>
       <c r="AF3" t="n">
         <v>1.225418270965018e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>314313.3589120437</v>
+        <v>408487.7331381836</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.8092064168814</v>
+        <v>346.3161215082175</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.2189064265926</v>
+        <v>473.8449958365305</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.0309967606306</v>
+        <v>428.6218944795199</v>
       </c>
       <c r="AD2" t="n">
-        <v>261809.2064168814</v>
+        <v>346316.1215082175</v>
       </c>
       <c r="AE2" t="n">
-        <v>358218.9064265926</v>
+        <v>473844.9958365305</v>
       </c>
       <c r="AF2" t="n">
         <v>1.302083865260027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>324030.9967606306</v>
+        <v>428621.8944795199</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.3667037740616</v>
+        <v>367.3922125318038</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.4006283083708</v>
+        <v>502.6822333865145</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.57291922071</v>
+        <v>454.7069465510505</v>
       </c>
       <c r="AD2" t="n">
-        <v>274366.7037740616</v>
+        <v>367392.2125318038</v>
       </c>
       <c r="AE2" t="n">
-        <v>375400.6283083708</v>
+        <v>502682.2333865145</v>
       </c>
       <c r="AF2" t="n">
         <v>1.344401624987961e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.97135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>339572.9192207101</v>
+        <v>454706.9465510505</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.6826526831874</v>
+        <v>481.1114683351584</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.2384058305207</v>
+        <v>658.2779361161524</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.8781088530319</v>
+        <v>595.452813792112</v>
       </c>
       <c r="AD2" t="n">
-        <v>362682.6526831874</v>
+        <v>481111.4683351584</v>
       </c>
       <c r="AE2" t="n">
-        <v>496238.4058305207</v>
+        <v>658277.9361161524</v>
       </c>
       <c r="AF2" t="n">
         <v>1.335294071269758e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.26692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>448878.1088530319</v>
+        <v>595452.8137921121</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.7089917770508</v>
+        <v>392.8450128616611</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.970332426242</v>
+        <v>537.5078776961255</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.2250936824208</v>
+        <v>486.208880245851</v>
       </c>
       <c r="AD2" t="n">
-        <v>296708.9917770508</v>
+        <v>392845.0128616611</v>
       </c>
       <c r="AE2" t="n">
-        <v>405970.3324262419</v>
+        <v>537507.8776961255</v>
       </c>
       <c r="AF2" t="n">
         <v>1.01673252784585e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>367225.0936824208</v>
+        <v>486208.880245851</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.061423671945</v>
+        <v>324.0249052096857</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.0403394485555</v>
+        <v>443.3451702778224</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.7782438942822</v>
+        <v>401.0329294653608</v>
       </c>
       <c r="AD3" t="n">
-        <v>247061.423671945</v>
+        <v>324024.9052096857</v>
       </c>
       <c r="AE3" t="n">
-        <v>338040.3394485555</v>
+        <v>443345.1702778224</v>
       </c>
       <c r="AF3" t="n">
         <v>1.158651385194866e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.64453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>305778.2438942822</v>
+        <v>401032.9294653608</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.4446447309688</v>
+        <v>518.4427762270427</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.9567145775584</v>
+        <v>709.3562785148973</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.2289158529867</v>
+        <v>641.6563108812245</v>
       </c>
       <c r="AD2" t="n">
-        <v>411444.6447309688</v>
+        <v>518442.7762270427</v>
       </c>
       <c r="AE2" t="n">
-        <v>562956.7145775583</v>
+        <v>709356.2785148973</v>
       </c>
       <c r="AF2" t="n">
         <v>7.626327226248321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>509228.9158529867</v>
+        <v>641656.3108812245</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.6574597151729</v>
+        <v>320.7786068769718</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.6970828425822</v>
+        <v>438.9034416824288</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.7042384450924</v>
+        <v>397.0151132131063</v>
       </c>
       <c r="AD3" t="n">
-        <v>252657.4597151729</v>
+        <v>320778.6068769718</v>
       </c>
       <c r="AE3" t="n">
-        <v>345697.0828425823</v>
+        <v>438903.4416824288</v>
       </c>
       <c r="AF3" t="n">
         <v>1.080283162010886e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>312704.2384450924</v>
+        <v>397015.1132131063</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.4085941796486</v>
+        <v>600.8159840957386</v>
       </c>
       <c r="AB2" t="n">
-        <v>624.4783738826914</v>
+        <v>822.0629355702997</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.8790343402291</v>
+        <v>743.6064027720462</v>
       </c>
       <c r="AD2" t="n">
-        <v>456408.5941796486</v>
+        <v>600815.9840957386</v>
       </c>
       <c r="AE2" t="n">
-        <v>624478.3738826914</v>
+        <v>822062.9355702997</v>
       </c>
       <c r="AF2" t="n">
         <v>1.233183289829736e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.22005208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>564879.034340229</v>
+        <v>743606.4027720462</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.2573294826675</v>
+        <v>337.2111348085206</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.1496070059686</v>
+        <v>461.3871513503415</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.2090129339379</v>
+        <v>417.3530091863981</v>
       </c>
       <c r="AD2" t="n">
-        <v>252257.3294826675</v>
+        <v>337211.1348085206</v>
       </c>
       <c r="AE2" t="n">
-        <v>345149.6070059686</v>
+        <v>461387.1513503414</v>
       </c>
       <c r="AF2" t="n">
         <v>1.276235078784621e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>312209.0129339378</v>
+        <v>417353.0091863981</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.4982631854425</v>
+        <v>335.8705269707156</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.0569719457179</v>
+        <v>459.5528725632129</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.1708328688077</v>
+        <v>415.6937913922868</v>
       </c>
       <c r="AD2" t="n">
-        <v>259498.2631854425</v>
+        <v>335870.5269707156</v>
       </c>
       <c r="AE2" t="n">
-        <v>355056.9719457179</v>
+        <v>459552.8725632129</v>
       </c>
       <c r="AF2" t="n">
         <v>1.173408717669513e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.43880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>321170.8328688077</v>
+        <v>415693.7913922868</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.890864992826</v>
+        <v>331.2631287781022</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.7529264743525</v>
+        <v>453.2488270920168</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.468436649551</v>
+        <v>409.9913951730782</v>
       </c>
       <c r="AD3" t="n">
-        <v>254890.864992826</v>
+        <v>331263.1287781022</v>
       </c>
       <c r="AE3" t="n">
-        <v>348752.9264743525</v>
+        <v>453248.8270920168</v>
       </c>
       <c r="AF3" t="n">
         <v>1.201758935867183e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04817708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>315468.436649551</v>
+        <v>409991.3951730782</v>
       </c>
     </row>
   </sheetData>
